--- a/medicine/Enfance/La_Couronne_de_Golconde/La_Couronne_de_Golconde.xlsx
+++ b/medicine/Enfance/La_Couronne_de_Golconde/La_Couronne_de_Golconde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Couronne de Golconde est le 33e roman de la série Bob Morane, écrit par Henri Vernes et publié en 1959 par les éditions Gérard et Cie dans la collection Marabout Junior (le roman porte le no 142 de la collection de 1959 à 1970). 
@@ -512,7 +524,9 @@
           <t>Caractéristiques du roman</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est connu dans la mesure où il marque la première apparition de monsieur Ming, qui sera connu plus tard sous le pseudonyme de l’Ombre jaune (Bob Morane n°35) et qui deviendra, sans conteste, l'ennemi récurrent du héros, apparaissant dans 34 récits de la série.
 Bill Ballantine n'apparaît pas dans le récit.
@@ -547,13 +561,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les « gentils »
-Commandant Bob Morane : aventurier.
+          <t>Les « gentils »</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Commandant Bob Morane : aventurier.
 Sarojini Savadrâ : jeune et jolie métisse dont le surnom est « Jini », fille de l'ancien sultan de Golconde, Savadrâ Khan. Son père lui a légué le trésor de Golconde qu'il a jadis retrouvé dans les murs de la Vieille-Cité de Phâli. Bob lui vient en aide et retrouve le trésor pour elle.
 Savadrâ Kahn : père de la précédente. Décédé. Il a découvert les trésors de Golconde qui appartenait à ses ancêtres.
-Dhunpa Raï : moine bouddhiste résidant au monastère de Kunwar près de Phâli. Ami de Savadrâ Khan, il connait l'emplacement du trésor.
-Les « méchants »
-M. Ming : première apparition du personnage dans la série. Il est à noter qu'il ne porte pas encore le surnom d’Ombre Jaune. Morane lui sauve la vie.
+Dhunpa Raï : moine bouddhiste résidant au monastère de Kunwar près de Phâli. Ami de Savadrâ Khan, il connait l'emplacement du trésor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>La_Couronne_de_Golconde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Couronne_de_Golconde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les « méchants »</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>M. Ming : première apparition du personnage dans la série. Il est à noter qu'il ne porte pas encore le surnom d’Ombre Jaune. Morane lui sauve la vie.
 Rajah Singh : cousin de Jini. Il a succédé à Savadrâ Khan à la tête du sultanat de Golconde.
 Sirdar : lieutenant de police de Rajah Singh.
 Hubert Jason : surnommé le Roi du poker. Ancien capitaine des gardes de Savadrâ Khan. Homme de main de Ming.
@@ -561,31 +614,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>La_Couronne_de_Golconde</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/La_Couronne_de_Golconde</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Antérieurement au récit, Sarojini Savadrâ (dite Jini), jeune et jolie métisse anglo-indienne, partagée entre le monde indien et le monde occidental, veut entrer en possession du fabuleux trésor des anciens sultans de Golconde dont son père lui a légué le secret. Elle a pris place sur le paquebot Le Gange qui doit l'amener en Inde. Bob Morane se trouve aussi sur le même navire, pour son plaisir de faire une croisière et pour faire un reportage qu'il revendra à des magazines européens.
 Bob Morane, à bord du navire, fait une partie de poker contre Hubert Jason, un fanfaron qui prétend « plumer » ses adversaires. Bob joue contre lui et rafle l'intégralité des gains ; par amour de l'humanité et par volonté de ne pas nuire à son prochain, il fait en sorte que Jason récupère son argent. Plus tard, une jeune fille, Jini, vient voir Bob et lui dit qu'elle a vu qu'il avait laissé son adversaire récupérer ses pertes ; Bob ne nie pas. Le même soir, alors que Bob prend le frais près du bastingage, il surprend involontairement une conversation entre Hubert Jason et un autre homme : il résulte de la conversation que les deux hommes ont reçu l'ordre de suivre Jini et de s'emparer d'un trésor dont elle connaît l'emplacement. Bob Morane s'empresse de révéler à la jeune femme cette information et le danger qu'elle court. En fin de compte, devant l'inflexibilité de Jini qui refuse de renoncer à récupérer le trésor de ses ancêtres, Bob s'engage à la protéger.
@@ -599,31 +654,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>La_Couronne_de_Golconde</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/La_Couronne_de_Golconde</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>La description de M. Ming dans le roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">M. Ming est ainsi décrit par le narrateur (chapitre IV) :
 « C'était un Asiatique (un Chinois ou plus probablement un Mongol !) long et maigre — il devait mesurer près de deux mètres —, vêtu d'un costume noir au col fermé de clergyman. Ses bras, anormalement longs et musclés, s'il fallait en juger par la façon dont ils remplissaient les manches du vêtement, étaient peu en rapport avec le corps filiforme, et aussi les mains énormes, osseuses, avec des doigts pareils à des dents de fourche. Mais le visage plus encore retenait l'attention. Un visage d'un jaune un peu verdâtre, faisant songer à un citron pas tout à fait mûri.
